--- a/loaded_influencer_data/jocelinerobles_/jocelinerobles__video.xlsx
+++ b/loaded_influencer_data/jocelinerobles_/jocelinerobles__video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,50 +506,49 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jocelinerobles_/video/7475461077925432631</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jocelinerobles_/video/7487252526224510214</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1292</v>
+        <v>693</v>
       </c>
       <c r="C2" t="n">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="D2" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>cuál fue tu favorito? el mío fue conecta 😍😍😍
-@Yoss 💜
+          <t>Vive una piña de bajo del marrrr... 🍍✨💛💗
 .
-.
-.
-#labiales #beauty #belleza #makeup #maquillaje</t>
+@Goddesses of Makeup ✨
+#makeup
+#maquillaje</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>16.40866873065016</v>
+        <v>18.61471861471862</v>
       </c>
       <c r="I2" t="n">
-        <v>11.22291021671827</v>
+        <v>13.70851370851371</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.185758513931889</v>
+        <v>4.906204906204906</v>
       </c>
       <c r="L2" t="n">
-        <v>1.547987616099071</v>
+        <v>1.298701298701299</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,18 +557,18 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7448840923867368709</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1131</v>
+        <v>1147</v>
       </c>
       <c r="C3" t="n">
         <v>134</v>
@@ -594,19 +593,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>16.35720601237843</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="I3" t="n">
-        <v>11.84792219274978</v>
+        <v>11.68265039232781</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.509283819628647</v>
+        <v>4.446381865736704</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4420866489832007</v>
+        <v>0.4359197907585004</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -620,7 +619,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7427148086352432390</t>
         </is>
@@ -673,129 +672,438 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jocelinerobles_/video/7489529244511407415</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>393</v>
+      </c>
+      <c r="C5" t="n">
+        <v>74</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Está deliii, estaré probando y dentro de unos días les daré mis resultados 🤩😋
+#VitalProteins #Publicidad</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>25.44529262086514</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18.8295165394402</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.615776081424936</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.307888040712468</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jocelinerobles_/video/7489477276199832837</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>310</v>
+      </c>
+      <c r="C6" t="n">
+        <v>52</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>@Rappi México #Rappilovers
+https://rappi.onelink.me/2373836517/3rs0uh80</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>22.25806451612903</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16.7741935483871</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.483870967741936</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.548387096774194</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jocelinerobles_/video/7489101365541719302</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>678</v>
+      </c>
+      <c r="C7" t="n">
+        <v>89</v>
+      </c>
+      <c r="D7" t="n">
+        <v>69</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>44</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Calidad y precio en @WEIDE OFICIAL consigue tu par ideal dando clic en el carrito naranja ✨
+.
+.
+.</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>23.30383480825959</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13.12684365781711</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10.17699115044248</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.489675516224189</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jocelinerobles_/video/7488872347580091653</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>880</v>
+      </c>
+      <c r="C8" t="n">
+        <v>90</v>
+      </c>
+      <c r="D8" t="n">
+        <v>73</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Debes tener un Meoky si o si, dale click al carrito naranja y consigue el tuyo 🫵🏻✨
+@Meoky_MX
+@MEOKY official</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>18.52272727272727</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10.22727272727273</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8.295454545454547</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.681818181818182</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jocelinerobles_/video/7488837444889251077</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>379</v>
+      </c>
+      <c r="C9" t="n">
+        <v>56</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>22</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>#Morraland #tendencia #nuevamusica #campaña</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>17.67810026385224</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14.77572559366755</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.902374670184697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.804749340369393</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@jocelinerobles_/video/7488707368327384375</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>963</v>
+      </c>
+      <c r="C10" t="n">
+        <v>133</v>
+      </c>
+      <c r="D10" t="n">
+        <v>74</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>33</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>¿Ya probaron la Hellmann’s Flamint Hot? es una verdadera deliciaaa 😋🤤
+#Publicidad
+#hellmannsflaminhot</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>21.49532710280374</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13.8110072689512</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7.684319833852545</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.426791277258566</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7487008451072183607</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B11" t="n">
         <v>358</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C11" t="n">
         <v>54</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D11" t="n">
         <v>15</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>3</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Mis favoritos de Dossier para caballero 🤩🩵
  #dossier #dossierperfumes @Dossier Perfume</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H11" t="n">
         <v>19.27374301675978</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I11" t="n">
         <v>15.08379888268156</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.189944134078212</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L11" t="n">
         <v>0.8379888268156425</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7486956417115622711</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B12" t="n">
         <v>277</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C12" t="n">
         <v>33</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D12" t="n">
         <v>13</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>5</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>@Rappi México @KFC_MX #Rappilovers
 https://rappi.onelink.me/y6GB/4ppjyms3</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H12" t="n">
         <v>16.60649819494585</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I12" t="n">
         <v>11.91335740072202</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>4.693140794223827</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L12" t="n">
         <v>1.805054151624549</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7486854694892178694</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B13" t="n">
         <v>458</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C13" t="n">
         <v>68</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D13" t="n">
         <v>17</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>8</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>❗🌟🧚🏻‍♂️🤍
 @Zinaí Peña
@@ -805,412 +1113,412 @@
 #campaña #tendencia #frase</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H13" t="n">
         <v>18.5589519650655</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I13" t="n">
         <v>14.8471615720524</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.711790393013101</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L13" t="n">
         <v>1.746724890829694</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7486516748745739575</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B14" t="n">
         <v>569</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C14" t="n">
         <v>104</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D14" t="n">
         <v>72</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>44</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>🤩 @Rappi México #Rappilovers
 https://rappi.onelink.me/y6GB/u0kbci61</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H14" t="n">
         <v>30.93145869947276</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I14" t="n">
         <v>18.27768014059754</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>12.65377855887522</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L14" t="n">
         <v>7.732864674868189</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7486224424107265286</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B15" t="n">
         <v>538</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C15" t="n">
         <v>66</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D15" t="n">
         <v>25</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>19</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>@Rappi México @Starbucks México #Rappilovers
 https://rappi.onelink.me/C1mS/uj5w7d43</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H15" t="n">
         <v>16.91449814126394</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I15" t="n">
         <v>12.26765799256506</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.646840148698884</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L15" t="n">
         <v>3.531598513011152</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7486133780462243077</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B16" t="n">
         <v>410</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C16" t="n">
         <v>73</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D16" t="n">
         <v>32</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>25</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>@Rappi México @McDonaldsMx
 https://rappi.onelink.me/2373836517/mcd1
 #Rappilovers</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H16" t="n">
         <v>25.60975609756098</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I16" t="n">
         <v>17.80487804878049</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>7.804878048780488</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L16" t="n">
         <v>6.097560975609756</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7485885930734341431</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B17" t="n">
         <v>455</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C17" t="n">
         <v>82</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D17" t="n">
         <v>31</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>28</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>https://rappi.onelink.me/y6GB/w3aryv8m
 @Rappi México @Little Caesars México #Rappilovers</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H17" t="n">
         <v>24.83516483516484</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I17" t="n">
         <v>18.02197802197802</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>6.813186813186813</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L17" t="n">
         <v>6.153846153846154</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7485823954226138373</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B18" t="n">
         <v>365</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C18" t="n">
         <v>56</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D18" t="n">
         <v>28</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>24</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>25 y 25 de Marzo, aprovecha las promos ❗❗🤩
 @Rappi México @McDonaldsMx
 #Rappilovers</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H18" t="n">
         <v>23.01369863013699</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I18" t="n">
         <v>15.34246575342466</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>7.671232876712329</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L18" t="n">
         <v>6.575342465753424</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7485816370614242565</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B19" t="n">
         <v>392</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C19" t="n">
         <v>80</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D19" t="n">
         <v>36</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>30</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>🧸💗✨🍒
 @lizzo
 #campaña #nuevamusica #tendencia</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H19" t="n">
         <v>29.59183673469388</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I19" t="n">
         <v>20.40816326530612</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>9.183673469387756</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L19" t="n">
         <v>7.653061224489796</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7485399616951684357</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B20" t="n">
         <v>762</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C20" t="n">
         <v>143</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D20" t="n">
         <v>80</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>61</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>y ni mooodo 💋
 @RaiNao @Randy Ortiz #musicanueva #tendencia #contenido #campaña</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H20" t="n">
         <v>29.26509186351706</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I20" t="n">
         <v>18.76640419947507</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>10.498687664042</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L20" t="n">
         <v>8.005249343832022</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7485139254490811653</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B21" t="n">
         <v>448</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C21" t="n">
         <v>63</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D21" t="n">
         <v>38</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>29</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Solo por hoy!! ❗❗
 @Rappi México @McDonaldsMx
@@ -1218,155 +1526,155 @@
 https://rappi.onelink.me/2373836517/mcd1</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H21" t="n">
         <v>22.54464285714286</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I21" t="n">
         <v>14.0625</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>8.482142857142858</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L21" t="n">
         <v>6.473214285714286</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7485011018138111238</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B22" t="n">
         <v>441</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C22" t="n">
         <v>78</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D22" t="n">
         <v>30</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>18</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>¡No te conformes con cualquiera!
 Usa el mejor sérum de ácido hialurónico #revitalift de @L’Oréal Paris 💜🌟</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H22" t="n">
         <v>24.48979591836735</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I22" t="n">
         <v>17.68707482993197</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>6.802721088435375</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L22" t="n">
         <v>4.081632653061225</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7484746748372553015</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B23" t="n">
         <v>435</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C23" t="n">
         <v>57</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>11</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Promos que no te puedes perder!! 🌟❗
 @Rappi México @McDonaldsMx
 #Rappilovers</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H23" t="n">
         <v>18.16091954022989</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I23" t="n">
         <v>13.10344827586207</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>5.057471264367816</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L23" t="n">
         <v>2.528735632183908</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7484685131727326469</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B24" t="n">
         <v>638</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C24" t="n">
         <v>90</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D24" t="n">
         <v>25</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>8</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>grabé muchos así que se aguantan 🫵🏻 jajaja 🧚🏻‍♂️🤎
 .
@@ -1375,52 +1683,52 @@
 #makeup #maquillaje #beauty #belleza</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H24" t="n">
         <v>18.02507836990596</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I24" t="n">
         <v>14.10658307210031</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.918495297805643</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L24" t="n">
         <v>1.253918495297806</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7484515829158120759</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B25" t="n">
         <v>537</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C25" t="n">
         <v>61</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D25" t="n">
         <v>23</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>9</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>🧚🏻‍♂️🤎✨
 .
@@ -1429,258 +1737,258 @@
 #fawn #tinkerbell #hada #makeuphada #belleza #beauty #maquillaje #makeup</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H25" t="n">
         <v>15.64245810055866</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I25" t="n">
         <v>11.35940409683426</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>4.283054003724395</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L25" t="n">
         <v>1.675977653631285</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7484513152328043831</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B26" t="n">
         <v>837</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C26" t="n">
         <v>100</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D26" t="n">
         <v>33</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>18</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>hoy quise ser Fawn o algo así jiji 🧚🏻‍♂️🤎🤎🤎✨
 @Goddesses of Makeup 🧸
 #makeup #maquillaje</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H26" t="n">
         <v>15.89008363201912</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I26" t="n">
         <v>11.94743130227001</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.942652329749104</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L26" t="n">
         <v>2.150537634408602</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7484338367451172102</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>582</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>115</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D27" t="n">
         <v>78</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>51</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>una chela a $5 pesos ❗❗ solo por Rappi 🤩✨ @Rappi México #Rappilovers
 https://rappi.app.link/mode</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>33.1615120274914</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I27" t="n">
         <v>19.75945017182131</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>13.4020618556701</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L27" t="n">
         <v>8.762886597938143</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7484310523543096581</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B28" t="n">
         <v>520</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C28" t="n">
         <v>117</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D28" t="n">
         <v>72</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>49</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>una chela a $5 pesos ❗❗ solo por Rappi 🤩✨ @Rappi México #Rappilovers
 https://rappi.app.link/mode</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H28" t="n">
         <v>36.34615384615385</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I28" t="n">
         <v>22.5</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>13.84615384615385</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L28" t="n">
         <v>9.423076923076923</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7484009228370185478</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B29" t="n">
         <v>438</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C29" t="n">
         <v>67</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D29" t="n">
         <v>34</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>23</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>@Rappi México @McDonaldsMx
 #RappiLovers
 https://rappi.onelink.me/2373836517/mcd1</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H29" t="n">
         <v>23.05936073059361</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I29" t="n">
         <v>15.29680365296804</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>7.76255707762557</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L29" t="n">
         <v>5.251141552511415</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7483909434276678918</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B30" t="n">
         <v>1392</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C30" t="n">
         <v>138</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D30" t="n">
         <v>89</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>37</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Los mejores vasos y termos para esta temporada de calor @Meoky_MX consíguelos directo 🌟❗✨
 .
@@ -1689,256 +1997,256 @@
 .</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H30" t="n">
         <v>16.30747126436782</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I30" t="n">
         <v>9.913793103448276</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>6.39367816091954</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L30" t="n">
         <v>2.658045977011494</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7483007893919239429</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B31" t="n">
         <v>963</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C31" t="n">
         <v>142</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D31" t="n">
         <v>76</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>41</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Estoy inloveeeeeeee de esta línea de @SKIN1004 US la puedes conseguir en @YesStyle y aplica mi código de descuento: JOCELINERS30 🌟❗</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H31" t="n">
         <v>22.63759086188993</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I31" t="n">
         <v>14.74558670820353</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>7.892004153686397</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L31" t="n">
         <v>4.257528556593977</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7482563941990894853</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B32" t="n">
         <v>626</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C32" t="n">
         <v>78</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D32" t="n">
         <v>28</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>9</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>🧚🏻‍♂️💚
 #nuevamusica #comocapo
 #feliz #feelings #campaña</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H32" t="n">
         <v>16.93290734824281</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I32" t="n">
         <v>12.46006389776358</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>4.472843450479233</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L32" t="n">
         <v>1.437699680511182</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7482197805386173751</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B33" t="n">
         <v>953</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C33" t="n">
         <v>109</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D33" t="n">
         <v>38</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>21</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>el mejor shampoo para combatir la caspa 🌟🤩
 @For_Me
 #VichyDercosFM #MEvsDANDRUFF #Dercos</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H33" t="n">
         <v>15.42497376705142</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I33" t="n">
         <v>11.43756558237146</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>3.987408184679958</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L33" t="n">
         <v>2.203567681007345</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7481319698274078007</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B34" t="n">
         <v>910</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C34" t="n">
         <v>83</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D34" t="n">
         <v>26</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>7</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>lol k mal xd</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H34" t="n">
         <v>11.97802197802198</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I34" t="n">
         <v>9.12087912087912</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>2.857142857142857</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L34" t="n">
         <v>0.7692307692307693</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7481094139493240119</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B35" t="n">
         <v>618</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C35" t="n">
         <v>83</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D35" t="n">
         <v>32</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>8</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>lo pueden conseguir en @YesStyle y utiliza mi código de descuento "JOCELINERS30" 💗🌸
 .
@@ -1946,561 +2254,561 @@
 .</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H35" t="n">
         <v>18.6084142394822</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I35" t="n">
         <v>13.43042071197411</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>5.177993527508091</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L35" t="n">
         <v>1.294498381877023</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7480652945319775543</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B36" t="n">
         <v>625</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C36" t="n">
         <v>70</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D36" t="n">
         <v>28</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>18</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>#toxica #celos #santander #campaña #picao
 @Santander</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H36" t="n">
         <v>15.68</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I36" t="n">
         <v>11.2</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>4.48</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L36" t="n">
         <v>2.88</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7480560043620846853</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B37" t="n">
         <v>499</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C37" t="n">
         <v>94</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>42</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>20</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>@LUNAY ✨🍒
 #megritas
 #campaña</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H37" t="n">
         <v>27.25450901803607</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I37" t="n">
         <v>18.8376753507014</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>8.41683366733467</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L37" t="n">
         <v>4.008016032064128</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7480340482741062967</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B38" t="n">
         <v>672</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C38" t="n">
         <v>95</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D38" t="n">
         <v>35</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>11</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>#Desmanchate con glycolic brigth de @L’Oréal Paris 🌸✨💗
 #ManchasGameOverFM #ManchasGameOver</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H38" t="n">
         <v>19.34523809523809</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I38" t="n">
         <v>14.13690476190476</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>5.208333333333334</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L38" t="n">
         <v>1.636904761904762</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7480204590802144518</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B39" t="n">
         <v>738</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C39" t="n">
         <v>94</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D39" t="n">
         <v>42</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>18</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>#Desmanchate con glycolic brigth de @L’Oréal Paris 🌸✨💗
 #ManchasGameOverFM #ManchasGameOver</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H39" t="n">
         <v>18.42818428184282</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I39" t="n">
         <v>12.73712737127371</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>5.691056910569105</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L39" t="n">
         <v>2.439024390243902</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7479882009548967173</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B40" t="n">
         <v>802</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C40" t="n">
         <v>88</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D40" t="n">
         <v>32</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>13</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>De mis productos favoritos para el skincare 😍 @SKIN1004 US la puedes conseguir en @YesStyle y utilizar mi código de descuento: JOCELINERS30 ❗💗✨</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H40" t="n">
         <v>14.96259351620948</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I40" t="n">
         <v>10.97256857855361</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>3.99002493765586</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L40" t="n">
         <v>1.620947630922693</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7479459484365114629</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B41" t="n">
         <v>835</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C41" t="n">
         <v>105</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D41" t="n">
         <v>44</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>11</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>@marco mares ✨
 #tirados
 #supernatural #campaña</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H41" t="n">
         <v>17.84431137724551</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I41" t="n">
         <v>12.5748502994012</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>5.269461077844311</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L41" t="n">
         <v>1.317365269461078</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7479251647584144646</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B42" t="n">
         <v>900</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C42" t="n">
         <v>123</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D42" t="n">
         <v>35</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>11</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>:)💜 @Goddesses of Makeup
 #makeup #maquillaje #beauty #belleza</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H42" t="n">
         <v>17.55555555555555</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I42" t="n">
         <v>13.66666666666667</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>3.888888888888889</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L42" t="n">
         <v>1.222222222222222</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7479250586114870534</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B43" t="n">
         <v>844</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C43" t="n">
         <v>105</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D43" t="n">
         <v>40</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>15</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>💜🧸✨</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H43" t="n">
         <v>17.18009478672986</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I43" t="n">
         <v>12.44075829383886</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>4.739336492890995</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L43" t="n">
         <v>1.777251184834123</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7478755306634366213</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B44" t="n">
         <v>682</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C44" t="n">
         <v>81</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D44" t="n">
         <v>34</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>9</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>💜🧸✨</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H44" t="n">
         <v>16.86217008797654</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I44" t="n">
         <v>11.87683284457478</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>4.98533724340176</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L44" t="n">
         <v>1.319648093841642</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7478340819301207302</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B45" t="n">
         <v>1176</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C45" t="n">
         <v>157</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D45" t="n">
         <v>71</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>11</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>adquiere tu fragancia ideal en @Dossier Perfume ✨🤩
 #dossier #dossierperfumes #perfumeria #perfumes</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H45" t="n">
         <v>19.38775510204082</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I45" t="n">
         <v>13.35034013605442</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>6.037414965986394</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L45" t="n">
         <v>0.935374149659864</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7478120807038897413</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B46" t="n">
         <v>670</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C46" t="n">
         <v>110</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D46" t="n">
         <v>48</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>8</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>amando estás pestañas de @PROLASHBEAUTY 💗🥰✨🍒
 .
@@ -2510,52 +2818,52 @@
 #pestañas #pestañaspostizas #lashes #prolash</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H46" t="n">
         <v>23.58208955223881</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I46" t="n">
         <v>16.41791044776119</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>7.164179104477612</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L46" t="n">
         <v>1.194029850746269</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7477057046546779397</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B47" t="n">
         <v>1551</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C47" t="n">
         <v>147</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D47" t="n">
         <v>71</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>22</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Cooling tint @Italia Deluxe Makeup 💗🍒✨
 Yo conseguí la mía en @Bubblevhsaa 💓
@@ -2564,149 +2872,149 @@
 #italiadeluxe</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H47" t="n">
         <v>14.05544809800129</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I47" t="n">
         <v>9.477756286266924</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>4.577691811734365</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L47" t="n">
         <v>1.418439716312057</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7476515457122569527</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B48" t="n">
         <v>1302</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C48" t="n">
         <v>166</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D48" t="n">
         <v>74</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>18</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
         <v>18.43317972350231</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I48" t="n">
         <v>12.74961597542243</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>5.683563748079877</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L48" t="n">
         <v>1.382488479262673</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7476174176689114374</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B49" t="n">
         <v>893</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C49" t="n">
         <v>133</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D49" t="n">
         <v>67</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>22</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Una joya estos suplementos de @suplint.mx 🤩💜
 #vitaminasyminerales #vitaminas #suplementos</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H49" t="n">
         <v>22.39641657334827</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I49" t="n">
         <v>14.8936170212766</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>7.502799552071669</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L49" t="n">
         <v>2.463605823068309</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7476032185074666757</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B50" t="n">
         <v>737</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C50" t="n">
         <v>107</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D50" t="n">
         <v>40</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>15</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>tengo ganas de hacer este makuep otra vez 🥹🧚🏻‍♂️✨💚
 .
@@ -2714,52 +3022,52 @@
 @Yeri MUA #tinkerbell #hadas #hadamakeup</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H50" t="n">
         <v>19.94572591587517</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I50" t="n">
         <v>14.51831750339213</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>5.42740841248304</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L50" t="n">
         <v>2.03527815468114</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@jocelinerobles_/video/7475941059462171909</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B51" t="n">
         <v>904</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C51" t="n">
         <v>129</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D51" t="n">
         <v>74</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>20</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>@Weidezapatos.mx @www.weide.cl
 📌 consigue las tuyas en:
@@ -2768,293 +3076,27 @@
 #shoes</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H51" t="n">
         <v>22.45575221238938</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I51" t="n">
         <v>14.26991150442478</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>8.185840707964601</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L51" t="n">
         <v>2.212389380530973</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-02-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jocelinerobles_/video/7475036955479215365</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>878</v>
-      </c>
-      <c r="C46" t="n">
-        <v>83</v>
-      </c>
-      <c r="D46" t="n">
-        <v>46</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>15</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Los mejores snacks para tu amiguito de 4 patas los encuentras en @Super Cría 🐾🤍
-.
-.
-.
-.
-#mascotas #premios</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>14.69248291571754</v>
-      </c>
-      <c r="I46" t="n">
-        <v>9.453302961275627</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>5.239179954441914</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.708428246013667</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jocelinerobles_/video/7474625708535434501</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>758</v>
-      </c>
-      <c r="C47" t="n">
-        <v>82</v>
-      </c>
-      <c r="D47" t="n">
-        <v>22</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>7</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>#PegateAlBaile #LaTrini @elmalibaby @El BOGUETO @
-@Eme Malafe
-#campaña</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>13.72031662269129</v>
-      </c>
-      <c r="I47" t="n">
-        <v>10.8179419525066</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2.902374670184697</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.9234828496042217</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jocelinerobles_/video/7474291331200765190</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>919</v>
-      </c>
-      <c r="C48" t="n">
-        <v>116</v>
-      </c>
-      <c r="D48" t="n">
-        <v>33</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>11</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>#Miau @BELLAKATH 👸🏻 @El BOGUETO @Darell
-#bellakath #campaña</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>16.2132752992383</v>
-      </c>
-      <c r="I48" t="n">
-        <v>12.62241566920566</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3.590859630032645</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.196953210010881</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jocelinerobles_/video/7473963386372394246</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>828</v>
-      </c>
-      <c r="C49" t="n">
-        <v>93</v>
-      </c>
-      <c r="D49" t="n">
-        <v>38</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>13</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>lol 😛
-@LOS KOMBOLOKOS ✨
-#valletanos #kombolokos #campaña #generacion</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>15.82125603864734</v>
-      </c>
-      <c r="I49" t="n">
-        <v>11.23188405797101</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>4.589371980676328</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.570048309178744</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-02-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@jocelinerobles_/video/7473716885549223186</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>972</v>
-      </c>
-      <c r="C50" t="n">
-        <v>92</v>
-      </c>
-      <c r="D50" t="n">
-        <v>25</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>10</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Deliciosas fresas con crema en @Fresi lover 🍓😍💗
-.
-.
-.
-.
-@estefgc4
-#fresasconcrema #postres #villahermosa</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>12.03703703703704</v>
-      </c>
-      <c r="I50" t="n">
-        <v>9.465020576131687</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2.57201646090535</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.02880658436214</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
         </is>
       </c>
     </row>
